--- a/natmiOut/OldD0/LR-pairs_lrc2p/Dnajb11-Prtg.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Dnajb11-Prtg.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.8400778023835</v>
+        <v>13.46482166666667</v>
       </c>
       <c r="H2">
-        <v>11.8400778023835</v>
+        <v>40.394465</v>
       </c>
       <c r="I2">
-        <v>0.4301866841370455</v>
+        <v>0.4580736409596084</v>
       </c>
       <c r="J2">
-        <v>0.4301866841370455</v>
+        <v>0.4580736409596083</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0082592616780322</v>
+        <v>0.03687233333333333</v>
       </c>
       <c r="N2">
-        <v>0.0082592616780322</v>
+        <v>0.110617</v>
       </c>
       <c r="O2">
-        <v>0.005517477920101856</v>
+        <v>0.02376577678298649</v>
       </c>
       <c r="P2">
-        <v>0.005517477920101856</v>
+        <v>0.02376577678298649</v>
       </c>
       <c r="Q2">
-        <v>0.09779030085814575</v>
+        <v>0.4964793927672222</v>
       </c>
       <c r="R2">
-        <v>0.09779030085814575</v>
+        <v>4.468314534905</v>
       </c>
       <c r="S2">
-        <v>0.00237354553124798</v>
+        <v>0.01088647590121595</v>
       </c>
       <c r="T2">
-        <v>0.00237354553124798</v>
+        <v>0.01088647590121595</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.8400778023835</v>
+        <v>13.46482166666667</v>
       </c>
       <c r="H3">
-        <v>11.8400778023835</v>
+        <v>40.394465</v>
       </c>
       <c r="I3">
-        <v>0.4301866841370455</v>
+        <v>0.4580736409596084</v>
       </c>
       <c r="J3">
-        <v>0.4301866841370455</v>
+        <v>0.4580736409596083</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.26697082037001</v>
+        <v>1.291491666666667</v>
       </c>
       <c r="N3">
-        <v>1.26697082037001</v>
+        <v>3.874475</v>
       </c>
       <c r="O3">
-        <v>0.8463811656916015</v>
+        <v>0.8324209479669633</v>
       </c>
       <c r="P3">
-        <v>0.8463811656916015</v>
+        <v>0.8324209479669634</v>
       </c>
       <c r="Q3">
-        <v>15.00103308653057</v>
+        <v>17.38970497565278</v>
       </c>
       <c r="R3">
-        <v>15.00103308653057</v>
+        <v>156.507344780875</v>
       </c>
       <c r="S3">
-        <v>0.3641019071849174</v>
+        <v>0.3813100944462756</v>
       </c>
       <c r="T3">
-        <v>0.3641019071849174</v>
+        <v>0.3813100944462756</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.8400778023835</v>
+        <v>13.46482166666667</v>
       </c>
       <c r="H4">
-        <v>11.8400778023835</v>
+        <v>40.394465</v>
       </c>
       <c r="I4">
-        <v>0.4301866841370455</v>
+        <v>0.4580736409596084</v>
       </c>
       <c r="J4">
-        <v>0.4301866841370455</v>
+        <v>0.4580736409596083</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.221696919316329</v>
+        <v>0.2231246666666667</v>
       </c>
       <c r="N4">
-        <v>0.221696919316329</v>
+        <v>0.669374</v>
       </c>
       <c r="O4">
-        <v>0.1481013563882967</v>
+        <v>0.1438132752500502</v>
       </c>
       <c r="P4">
-        <v>0.1481013563882967</v>
+        <v>0.1438132752500502</v>
       </c>
       <c r="Q4">
-        <v>2.624908773254073</v>
+        <v>3.004333846101111</v>
       </c>
       <c r="R4">
-        <v>2.624908773254073</v>
+        <v>27.03900461491</v>
       </c>
       <c r="S4">
-        <v>0.0637112314208802</v>
+        <v>0.06587707061211681</v>
       </c>
       <c r="T4">
-        <v>0.0637112314208802</v>
+        <v>0.06587707061211681</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.5637593133823</v>
+        <v>12.78463766666667</v>
       </c>
       <c r="H5">
-        <v>12.5637593133823</v>
+        <v>38.353913</v>
       </c>
       <c r="I5">
-        <v>0.4564802739921046</v>
+        <v>0.4349337606763218</v>
       </c>
       <c r="J5">
-        <v>0.4564802739921046</v>
+        <v>0.4349337606763218</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.0082592616780322</v>
+        <v>0.03687233333333333</v>
       </c>
       <c r="N5">
-        <v>0.0082592616780322</v>
+        <v>0.110617</v>
       </c>
       <c r="O5">
-        <v>0.005517477920101856</v>
+        <v>0.02376577678298649</v>
       </c>
       <c r="P5">
-        <v>0.005517477920101856</v>
+        <v>0.02376577678298649</v>
       </c>
       <c r="Q5">
-        <v>0.1037673758290386</v>
+        <v>0.4713994215912222</v>
       </c>
       <c r="R5">
-        <v>0.1037673758290386</v>
+        <v>4.242594794321</v>
       </c>
       <c r="S5">
-        <v>0.002518619832713483</v>
+        <v>0.01033653867161833</v>
       </c>
       <c r="T5">
-        <v>0.002518619832713483</v>
+        <v>0.01033653867161833</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.5637593133823</v>
+        <v>12.78463766666667</v>
       </c>
       <c r="H6">
-        <v>12.5637593133823</v>
+        <v>38.353913</v>
       </c>
       <c r="I6">
-        <v>0.4564802739921046</v>
+        <v>0.4349337606763218</v>
       </c>
       <c r="J6">
-        <v>0.4564802739921046</v>
+        <v>0.4349337606763218</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.26697082037001</v>
+        <v>1.291491666666667</v>
       </c>
       <c r="N6">
-        <v>1.26697082037001</v>
+        <v>3.874475</v>
       </c>
       <c r="O6">
-        <v>0.8463811656916015</v>
+        <v>0.8324209479669633</v>
       </c>
       <c r="P6">
-        <v>0.8463811656916015</v>
+        <v>0.8324209479669634</v>
       </c>
       <c r="Q6">
-        <v>15.91791644420733</v>
+        <v>16.51125300785278</v>
       </c>
       <c r="R6">
-        <v>15.91791644420733</v>
+        <v>148.601277070675</v>
       </c>
       <c r="S6">
-        <v>0.3863563064166591</v>
+        <v>0.3620479733650201</v>
       </c>
       <c r="T6">
-        <v>0.3863563064166591</v>
+        <v>0.3620479733650201</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.5637593133823</v>
+        <v>12.78463766666667</v>
       </c>
       <c r="H7">
-        <v>12.5637593133823</v>
+        <v>38.353913</v>
       </c>
       <c r="I7">
-        <v>0.4564802739921046</v>
+        <v>0.4349337606763218</v>
       </c>
       <c r="J7">
-        <v>0.4564802739921046</v>
+        <v>0.4349337606763218</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.221696919316329</v>
+        <v>0.2231246666666667</v>
       </c>
       <c r="N7">
-        <v>0.221696919316329</v>
+        <v>0.669374</v>
       </c>
       <c r="O7">
-        <v>0.1481013563882967</v>
+        <v>0.1438132752500502</v>
       </c>
       <c r="P7">
-        <v>0.1481013563882967</v>
+        <v>0.1438132752500502</v>
       </c>
       <c r="Q7">
-        <v>2.785346734808693</v>
+        <v>2.852568017829111</v>
       </c>
       <c r="R7">
-        <v>2.785346734808693</v>
+        <v>25.673112160462</v>
       </c>
       <c r="S7">
-        <v>0.06760534774273201</v>
+        <v>0.06254924863968332</v>
       </c>
       <c r="T7">
-        <v>0.06760534774273201</v>
+        <v>0.06254924863968331</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.11927840356901</v>
+        <v>3.144988333333333</v>
       </c>
       <c r="H8">
-        <v>3.11927840356901</v>
+        <v>9.434965</v>
       </c>
       <c r="I8">
-        <v>0.1133330418708499</v>
+        <v>0.1069925983640697</v>
       </c>
       <c r="J8">
-        <v>0.1133330418708499</v>
+        <v>0.1069925983640697</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.0082592616780322</v>
+        <v>0.03687233333333333</v>
       </c>
       <c r="N8">
-        <v>0.0082592616780322</v>
+        <v>0.110617</v>
       </c>
       <c r="O8">
-        <v>0.005517477920101856</v>
+        <v>0.02376577678298649</v>
       </c>
       <c r="P8">
-        <v>0.005517477920101856</v>
+        <v>0.02376577678298649</v>
       </c>
       <c r="Q8">
-        <v>0.02576293658171099</v>
+        <v>0.1159630581561111</v>
       </c>
       <c r="R8">
-        <v>0.02576293658171099</v>
+        <v>1.043667523405</v>
       </c>
       <c r="S8">
-        <v>0.0006253125561403934</v>
+        <v>0.002542762210152207</v>
       </c>
       <c r="T8">
-        <v>0.0006253125561403934</v>
+        <v>0.002542762210152206</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.11927840356901</v>
+        <v>3.144988333333333</v>
       </c>
       <c r="H9">
-        <v>3.11927840356901</v>
+        <v>9.434965</v>
       </c>
       <c r="I9">
-        <v>0.1133330418708499</v>
+        <v>0.1069925983640697</v>
       </c>
       <c r="J9">
-        <v>0.1133330418708499</v>
+        <v>0.1069925983640697</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.26697082037001</v>
+        <v>1.291491666666667</v>
       </c>
       <c r="N9">
-        <v>1.26697082037001</v>
+        <v>3.874475</v>
       </c>
       <c r="O9">
-        <v>0.8463811656916015</v>
+        <v>0.8324209479669633</v>
       </c>
       <c r="P9">
-        <v>0.8463811656916015</v>
+        <v>0.8324209479669634</v>
       </c>
       <c r="Q9">
-        <v>3.952034717932284</v>
+        <v>4.061726224263889</v>
       </c>
       <c r="R9">
-        <v>3.952034717932284</v>
+        <v>36.555536018375</v>
       </c>
       <c r="S9">
-        <v>0.09592295209002501</v>
+        <v>0.08906288015566749</v>
       </c>
       <c r="T9">
-        <v>0.09592295209002501</v>
+        <v>0.0890628801556675</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.11927840356901</v>
+        <v>3.144988333333333</v>
       </c>
       <c r="H10">
-        <v>3.11927840356901</v>
+        <v>9.434965</v>
       </c>
       <c r="I10">
-        <v>0.1133330418708499</v>
+        <v>0.1069925983640697</v>
       </c>
       <c r="J10">
-        <v>0.1133330418708499</v>
+        <v>0.1069925983640697</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.221696919316329</v>
+        <v>0.2231246666666667</v>
       </c>
       <c r="N10">
-        <v>0.221696919316329</v>
+        <v>0.669374</v>
       </c>
       <c r="O10">
-        <v>0.1481013563882967</v>
+        <v>0.1438132752500502</v>
       </c>
       <c r="P10">
-        <v>0.1481013563882967</v>
+        <v>0.1438132752500502</v>
       </c>
       <c r="Q10">
-        <v>0.6915344125612064</v>
+        <v>0.7017244735455556</v>
       </c>
       <c r="R10">
-        <v>0.6915344125612064</v>
+        <v>6.315520261910001</v>
       </c>
       <c r="S10">
-        <v>0.01678477722468449</v>
+        <v>0.01538695599825003</v>
       </c>
       <c r="T10">
-        <v>0.01678477722468449</v>
+        <v>0.01538695599825003</v>
       </c>
     </row>
   </sheetData>
